--- a/Knowledge/03_MicroService_Overview_20201117.xlsx
+++ b/Knowledge/03_MicroService_Overview_20201117.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SpringBootPrj\Knowledge\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7E9016F-2111-4A27-AB6F-E41ABBDBA8D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72238D59-4A2E-49EB-AE34-CE7E6200D992}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="57">
   <si>
     <t>2020/01/07</t>
     <phoneticPr fontId="5"/>
@@ -466,14 +466,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>Micro Service</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>Service</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
     <r>
       <t>Để chạy service có port đang đ</t>
     </r>
@@ -566,6 +558,37 @@
         <charset val="128"/>
       </rPr>
       <t>12020</t>
+    </r>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Architecture</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Microservice</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t>Microservice là một cách tiếp cận đối với phần mềm. Microservice chia application code thành các phần nhỏ có thể quản lý đ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>ư</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ợc và độc lập với application khác</t>
     </r>
     <phoneticPr fontId="3"/>
   </si>
@@ -1373,12 +1396,30 @@
     <xf numFmtId="0" fontId="30" fillId="4" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="2" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="5" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1387,24 +1428,6 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="5" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1874,10 +1897,10 @@
       <c r="B2" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="105" t="s">
+      <c r="C2" s="101" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="105"/>
+      <c r="D2" s="101"/>
       <c r="E2" s="36"/>
       <c r="F2" s="37"/>
     </row>
@@ -1888,10 +1911,10 @@
       <c r="B3" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="104" t="s">
-        <v>53</v>
-      </c>
-      <c r="D3" s="96"/>
+      <c r="C3" s="99" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3" s="100"/>
       <c r="E3" s="36"/>
       <c r="F3" s="37"/>
     </row>
@@ -1902,10 +1925,10 @@
       <c r="B4" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="104" t="s">
+      <c r="C4" s="99" t="s">
         <v>54</v>
       </c>
-      <c r="D4" s="96"/>
+      <c r="D4" s="100"/>
       <c r="E4" s="36"/>
       <c r="F4" s="37"/>
     </row>
@@ -1916,8 +1939,10 @@
       <c r="B5" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="103"/>
-      <c r="D5" s="103"/>
+      <c r="C5" s="95" t="s">
+        <v>56</v>
+      </c>
+      <c r="D5" s="95"/>
       <c r="E5" s="36"/>
       <c r="F5" s="42"/>
     </row>
@@ -1928,18 +1953,18 @@
       <c r="B6" s="43" t="s">
         <v>48</v>
       </c>
-      <c r="C6" s="103" t="s">
-        <v>55</v>
-      </c>
-      <c r="D6" s="103"/>
+      <c r="C6" s="95" t="s">
+        <v>53</v>
+      </c>
+      <c r="D6" s="95"/>
       <c r="E6" s="36"/>
       <c r="F6" s="42"/>
     </row>
     <row r="7" spans="1:6" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="100">
+      <c r="A7" s="96">
         <v>6</v>
       </c>
-      <c r="B7" s="97" t="s">
+      <c r="B7" s="103" t="s">
         <v>14</v>
       </c>
       <c r="C7" s="44" t="s">
@@ -1952,34 +1977,34 @@
       <c r="F7" s="37"/>
     </row>
     <row r="8" spans="1:6" s="30" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A8" s="101"/>
-      <c r="B8" s="98"/>
+      <c r="A8" s="97"/>
+      <c r="B8" s="104"/>
       <c r="C8" s="46"/>
       <c r="D8" s="47"/>
       <c r="E8" s="36"/>
       <c r="F8" s="37"/>
     </row>
     <row r="9" spans="1:6" s="30" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A9" s="101"/>
-      <c r="B9" s="98"/>
+      <c r="A9" s="97"/>
+      <c r="B9" s="104"/>
       <c r="C9" s="46"/>
       <c r="D9" s="47"/>
       <c r="E9" s="36"/>
       <c r="F9" s="37"/>
     </row>
     <row r="10" spans="1:6" s="30" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A10" s="102"/>
-      <c r="B10" s="99"/>
+      <c r="A10" s="98"/>
+      <c r="B10" s="105"/>
       <c r="C10" s="46"/>
       <c r="D10" s="47"/>
       <c r="E10" s="36"/>
       <c r="F10" s="37"/>
     </row>
     <row r="11" spans="1:6" s="30" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="100">
+      <c r="A11" s="96">
         <v>7</v>
       </c>
-      <c r="B11" s="97" t="s">
+      <c r="B11" s="103" t="s">
         <v>15</v>
       </c>
       <c r="C11" s="44" t="s">
@@ -1992,42 +2017,42 @@
       <c r="F11" s="37"/>
     </row>
     <row r="12" spans="1:6" s="30" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A12" s="101"/>
-      <c r="B12" s="98"/>
+      <c r="A12" s="97"/>
+      <c r="B12" s="104"/>
       <c r="C12" s="48"/>
       <c r="D12" s="47"/>
       <c r="E12" s="36"/>
       <c r="F12" s="37"/>
     </row>
     <row r="13" spans="1:6" s="30" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="101"/>
-      <c r="B13" s="98"/>
+      <c r="A13" s="97"/>
+      <c r="B13" s="104"/>
       <c r="C13" s="49"/>
       <c r="D13" s="49"/>
       <c r="E13" s="36"/>
       <c r="F13" s="37"/>
     </row>
     <row r="14" spans="1:6" s="30" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="101"/>
-      <c r="B14" s="98"/>
+      <c r="A14" s="97"/>
+      <c r="B14" s="104"/>
       <c r="C14" s="49"/>
       <c r="D14" s="49"/>
       <c r="E14" s="36"/>
       <c r="F14" s="37"/>
     </row>
     <row r="15" spans="1:6" s="30" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="102"/>
-      <c r="B15" s="99"/>
+      <c r="A15" s="98"/>
+      <c r="B15" s="105"/>
       <c r="C15" s="49"/>
       <c r="D15" s="49"/>
       <c r="E15" s="36"/>
       <c r="F15" s="37"/>
     </row>
     <row r="16" spans="1:6" s="30" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="100">
+      <c r="A16" s="96">
         <v>8</v>
       </c>
-      <c r="B16" s="97" t="s">
+      <c r="B16" s="103" t="s">
         <v>17</v>
       </c>
       <c r="C16" s="44" t="s">
@@ -2040,42 +2065,42 @@
       <c r="F16" s="37"/>
     </row>
     <row r="17" spans="1:6" s="30" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A17" s="101"/>
-      <c r="B17" s="98"/>
+      <c r="A17" s="97"/>
+      <c r="B17" s="104"/>
       <c r="C17" s="48"/>
       <c r="D17" s="47"/>
       <c r="E17" s="36"/>
       <c r="F17" s="37"/>
     </row>
     <row r="18" spans="1:6" s="30" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="101"/>
-      <c r="B18" s="98"/>
+      <c r="A18" s="97"/>
+      <c r="B18" s="104"/>
       <c r="C18" s="49"/>
       <c r="D18" s="49"/>
       <c r="E18" s="36"/>
       <c r="F18" s="37"/>
     </row>
     <row r="19" spans="1:6" s="30" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="101"/>
-      <c r="B19" s="98"/>
+      <c r="A19" s="97"/>
+      <c r="B19" s="104"/>
       <c r="C19" s="49"/>
       <c r="D19" s="49"/>
       <c r="E19" s="36"/>
       <c r="F19" s="37"/>
     </row>
     <row r="20" spans="1:6" s="30" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="102"/>
-      <c r="B20" s="99"/>
+      <c r="A20" s="98"/>
+      <c r="B20" s="105"/>
       <c r="C20" s="49"/>
       <c r="D20" s="49"/>
       <c r="E20" s="36"/>
       <c r="F20" s="37"/>
     </row>
     <row r="21" spans="1:6" s="30" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="100">
+      <c r="A21" s="96">
         <v>8</v>
       </c>
-      <c r="B21" s="97" t="s">
+      <c r="B21" s="103" t="s">
         <v>16</v>
       </c>
       <c r="C21" s="44" t="s">
@@ -2088,42 +2113,42 @@
       <c r="F21" s="37"/>
     </row>
     <row r="22" spans="1:6" s="30" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A22" s="101"/>
-      <c r="B22" s="98"/>
+      <c r="A22" s="97"/>
+      <c r="B22" s="104"/>
       <c r="C22" s="48"/>
       <c r="D22" s="47"/>
       <c r="E22" s="36"/>
       <c r="F22" s="37"/>
     </row>
     <row r="23" spans="1:6" s="30" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="101"/>
-      <c r="B23" s="98"/>
+      <c r="A23" s="97"/>
+      <c r="B23" s="104"/>
       <c r="C23" s="49"/>
       <c r="D23" s="49"/>
       <c r="E23" s="36"/>
       <c r="F23" s="37"/>
     </row>
     <row r="24" spans="1:6" s="30" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="101"/>
-      <c r="B24" s="98"/>
+      <c r="A24" s="97"/>
+      <c r="B24" s="104"/>
       <c r="C24" s="49"/>
       <c r="D24" s="49"/>
       <c r="E24" s="36"/>
       <c r="F24" s="37"/>
     </row>
     <row r="25" spans="1:6" s="30" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="102"/>
-      <c r="B25" s="99"/>
+      <c r="A25" s="98"/>
+      <c r="B25" s="105"/>
       <c r="C25" s="49"/>
       <c r="D25" s="49"/>
       <c r="E25" s="36"/>
       <c r="F25" s="37"/>
     </row>
     <row r="26" spans="1:6" s="30" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="100">
+      <c r="A26" s="96">
         <v>8</v>
       </c>
-      <c r="B26" s="97" t="s">
+      <c r="B26" s="103" t="s">
         <v>18</v>
       </c>
       <c r="C26" s="44" t="s">
@@ -2136,32 +2161,32 @@
       <c r="F26" s="37"/>
     </row>
     <row r="27" spans="1:6" s="30" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A27" s="101"/>
-      <c r="B27" s="98"/>
+      <c r="A27" s="97"/>
+      <c r="B27" s="104"/>
       <c r="C27" s="48"/>
       <c r="D27" s="47"/>
       <c r="E27" s="36"/>
       <c r="F27" s="37"/>
     </row>
     <row r="28" spans="1:6" s="30" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="101"/>
-      <c r="B28" s="98"/>
+      <c r="A28" s="97"/>
+      <c r="B28" s="104"/>
       <c r="C28" s="49"/>
       <c r="D28" s="49"/>
       <c r="E28" s="36"/>
       <c r="F28" s="37"/>
     </row>
     <row r="29" spans="1:6" s="30" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="101"/>
-      <c r="B29" s="98"/>
+      <c r="A29" s="97"/>
+      <c r="B29" s="104"/>
       <c r="C29" s="49"/>
       <c r="D29" s="49"/>
       <c r="E29" s="36"/>
       <c r="F29" s="37"/>
     </row>
     <row r="30" spans="1:6" s="30" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="102"/>
-      <c r="B30" s="99"/>
+      <c r="A30" s="98"/>
+      <c r="B30" s="105"/>
       <c r="C30" s="49"/>
       <c r="D30" s="49"/>
       <c r="E30" s="36"/>
@@ -2174,8 +2199,8 @@
       <c r="B31" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="C31" s="104"/>
-      <c r="D31" s="96"/>
+      <c r="C31" s="99"/>
+      <c r="D31" s="100"/>
       <c r="E31" s="36"/>
       <c r="F31" s="37"/>
     </row>
@@ -2186,8 +2211,8 @@
       <c r="B32" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="C32" s="95"/>
-      <c r="D32" s="96"/>
+      <c r="C32" s="102"/>
+      <c r="D32" s="100"/>
       <c r="E32" s="36"/>
       <c r="F32" s="37"/>
     </row>
@@ -2289,14 +2314,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="A7:A10"/>
-    <mergeCell ref="A11:A15"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
     <mergeCell ref="C32:D32"/>
     <mergeCell ref="B11:B15"/>
     <mergeCell ref="B7:B10"/>
@@ -2306,6 +2323,14 @@
     <mergeCell ref="B21:B25"/>
     <mergeCell ref="A26:A30"/>
     <mergeCell ref="B26:B30"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="A11:A15"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Knowledge/03_MicroService_Overview_20201117.xlsx
+++ b/Knowledge/03_MicroService_Overview_20201117.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SpringBootPrj\Knowledge\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72238D59-4A2E-49EB-AE34-CE7E6200D992}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0CE7919-562F-4990-81F4-F13A7A9632C0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="_History" sheetId="1" r:id="rId1"/>
@@ -466,8 +466,16 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <r>
-      <t>Để chạy service có port đang đ</t>
+    <t>Architecture</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Microservice</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t>Microservice là một cách tiếp cận đối với phần mềm. Microservice chia application code thành các phần nhỏ có thể quản lý đ</t>
     </r>
     <r>
       <rPr>
@@ -484,18 +492,43 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t xml:space="preserve">ợc sử dụng thì cần kill process sử dụng port đó. Các step để kill port:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
+      <t>ợc và độc lập với application khác. Các chức năng chính của Microservice bao gồm:
+- Tạo các app nhỏ, khép kín và luôn có sẵn
+- Làm cho code trở nên linh hoạt và có khả năng phục hồi
+- Cung cấp nhiều tính năng dành riêng cho Spring Boot
+- Cho phép xây dựng và sản xuất các app nhỏ trên quy mô lớn</t>
+    </r>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t>Luôn cần có Spring Cloud 
+(Spring Cloud giúp đ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>ơ</t>
+    </r>
+    <r>
+      <rPr>
         <sz val="8"/>
         <rFont val="Meiryo UI"/>
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t>Step 1:</t>
+      <t>n giản hóa việc quản lý và tăng c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>ư</t>
     </r>
     <r>
       <rPr>
@@ -504,91 +537,7 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t xml:space="preserve"> Tìm id của process đang sử dung port (eg: port 8080)
-netstat -ano |findstr </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <rFont val="Meiryo UI"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>8080</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Meiryo UI"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">
-  TCP    0.0.0.0:8080           0.0.0.0:0              LISTENING       12020
-  TCP    [::]:8080              [::]:0                 LISTENING       12020
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <rFont val="Meiryo UI"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>Step 2:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Meiryo UI"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve"> Chỉ định id của process cần kill (eg: id 12020)
-taskkill /F /PID </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <rFont val="Meiryo UI"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>12020</t>
-    </r>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>Architecture</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>Microservice</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <r>
-      <t>Microservice là một cách tiếp cận đối với phần mềm. Microservice chia application code thành các phần nhỏ có thể quản lý đ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>ư</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Meiryo UI"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>ợc và độc lập với application khác</t>
+      <t>ờng khả năng chịu lỗi của Microservice)</t>
     </r>
     <phoneticPr fontId="3"/>
   </si>
@@ -1396,38 +1345,38 @@
     <xf numFmtId="0" fontId="30" fillId="4" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="2" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="5" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="2" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1714,7 +1663,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:H10"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1866,7 +1815,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0A0EDBB-5C20-4300-A3CE-116632F81475}">
   <dimension ref="A1:F44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -1897,10 +1846,10 @@
       <c r="B2" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="101" t="s">
+      <c r="C2" s="105" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="101"/>
+      <c r="D2" s="105"/>
       <c r="E2" s="36"/>
       <c r="F2" s="37"/>
     </row>
@@ -1911,10 +1860,10 @@
       <c r="B3" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="99" t="s">
-        <v>55</v>
-      </c>
-      <c r="D3" s="100"/>
+      <c r="C3" s="104" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" s="96"/>
       <c r="E3" s="36"/>
       <c r="F3" s="37"/>
     </row>
@@ -1925,10 +1874,10 @@
       <c r="B4" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="99" t="s">
-        <v>54</v>
-      </c>
-      <c r="D4" s="100"/>
+      <c r="C4" s="104" t="s">
+        <v>53</v>
+      </c>
+      <c r="D4" s="96"/>
       <c r="E4" s="36"/>
       <c r="F4" s="37"/>
     </row>
@@ -1939,32 +1888,32 @@
       <c r="B5" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="95" t="s">
-        <v>56</v>
-      </c>
-      <c r="D5" s="95"/>
+      <c r="C5" s="103" t="s">
+        <v>55</v>
+      </c>
+      <c r="D5" s="103"/>
       <c r="E5" s="36"/>
       <c r="F5" s="42"/>
     </row>
-    <row r="6" spans="1:6" s="30" customFormat="1" ht="109.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:6" s="30" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="38">
         <v>5</v>
       </c>
       <c r="B6" s="43" t="s">
         <v>48</v>
       </c>
-      <c r="C6" s="95" t="s">
-        <v>53</v>
-      </c>
-      <c r="D6" s="95"/>
+      <c r="C6" s="103" t="s">
+        <v>56</v>
+      </c>
+      <c r="D6" s="103"/>
       <c r="E6" s="36"/>
       <c r="F6" s="42"/>
     </row>
     <row r="7" spans="1:6" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="96">
+      <c r="A7" s="100">
         <v>6</v>
       </c>
-      <c r="B7" s="103" t="s">
+      <c r="B7" s="97" t="s">
         <v>14</v>
       </c>
       <c r="C7" s="44" t="s">
@@ -1977,34 +1926,34 @@
       <c r="F7" s="37"/>
     </row>
     <row r="8" spans="1:6" s="30" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A8" s="97"/>
-      <c r="B8" s="104"/>
+      <c r="A8" s="101"/>
+      <c r="B8" s="98"/>
       <c r="C8" s="46"/>
       <c r="D8" s="47"/>
       <c r="E8" s="36"/>
       <c r="F8" s="37"/>
     </row>
     <row r="9" spans="1:6" s="30" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A9" s="97"/>
-      <c r="B9" s="104"/>
+      <c r="A9" s="101"/>
+      <c r="B9" s="98"/>
       <c r="C9" s="46"/>
       <c r="D9" s="47"/>
       <c r="E9" s="36"/>
       <c r="F9" s="37"/>
     </row>
     <row r="10" spans="1:6" s="30" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A10" s="98"/>
-      <c r="B10" s="105"/>
+      <c r="A10" s="102"/>
+      <c r="B10" s="99"/>
       <c r="C10" s="46"/>
       <c r="D10" s="47"/>
       <c r="E10" s="36"/>
       <c r="F10" s="37"/>
     </row>
     <row r="11" spans="1:6" s="30" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="96">
+      <c r="A11" s="100">
         <v>7</v>
       </c>
-      <c r="B11" s="103" t="s">
+      <c r="B11" s="97" t="s">
         <v>15</v>
       </c>
       <c r="C11" s="44" t="s">
@@ -2017,42 +1966,42 @@
       <c r="F11" s="37"/>
     </row>
     <row r="12" spans="1:6" s="30" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A12" s="97"/>
-      <c r="B12" s="104"/>
+      <c r="A12" s="101"/>
+      <c r="B12" s="98"/>
       <c r="C12" s="48"/>
       <c r="D12" s="47"/>
       <c r="E12" s="36"/>
       <c r="F12" s="37"/>
     </row>
     <row r="13" spans="1:6" s="30" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="97"/>
-      <c r="B13" s="104"/>
+      <c r="A13" s="101"/>
+      <c r="B13" s="98"/>
       <c r="C13" s="49"/>
       <c r="D13" s="49"/>
       <c r="E13" s="36"/>
       <c r="F13" s="37"/>
     </row>
     <row r="14" spans="1:6" s="30" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="97"/>
-      <c r="B14" s="104"/>
+      <c r="A14" s="101"/>
+      <c r="B14" s="98"/>
       <c r="C14" s="49"/>
       <c r="D14" s="49"/>
       <c r="E14" s="36"/>
       <c r="F14" s="37"/>
     </row>
     <row r="15" spans="1:6" s="30" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="98"/>
-      <c r="B15" s="105"/>
+      <c r="A15" s="102"/>
+      <c r="B15" s="99"/>
       <c r="C15" s="49"/>
       <c r="D15" s="49"/>
       <c r="E15" s="36"/>
       <c r="F15" s="37"/>
     </row>
     <row r="16" spans="1:6" s="30" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="96">
+      <c r="A16" s="100">
         <v>8</v>
       </c>
-      <c r="B16" s="103" t="s">
+      <c r="B16" s="97" t="s">
         <v>17</v>
       </c>
       <c r="C16" s="44" t="s">
@@ -2065,42 +2014,42 @@
       <c r="F16" s="37"/>
     </row>
     <row r="17" spans="1:6" s="30" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A17" s="97"/>
-      <c r="B17" s="104"/>
+      <c r="A17" s="101"/>
+      <c r="B17" s="98"/>
       <c r="C17" s="48"/>
       <c r="D17" s="47"/>
       <c r="E17" s="36"/>
       <c r="F17" s="37"/>
     </row>
     <row r="18" spans="1:6" s="30" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="97"/>
-      <c r="B18" s="104"/>
+      <c r="A18" s="101"/>
+      <c r="B18" s="98"/>
       <c r="C18" s="49"/>
       <c r="D18" s="49"/>
       <c r="E18" s="36"/>
       <c r="F18" s="37"/>
     </row>
     <row r="19" spans="1:6" s="30" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="97"/>
-      <c r="B19" s="104"/>
+      <c r="A19" s="101"/>
+      <c r="B19" s="98"/>
       <c r="C19" s="49"/>
       <c r="D19" s="49"/>
       <c r="E19" s="36"/>
       <c r="F19" s="37"/>
     </row>
     <row r="20" spans="1:6" s="30" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="98"/>
-      <c r="B20" s="105"/>
+      <c r="A20" s="102"/>
+      <c r="B20" s="99"/>
       <c r="C20" s="49"/>
       <c r="D20" s="49"/>
       <c r="E20" s="36"/>
       <c r="F20" s="37"/>
     </row>
     <row r="21" spans="1:6" s="30" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="96">
+      <c r="A21" s="100">
         <v>8</v>
       </c>
-      <c r="B21" s="103" t="s">
+      <c r="B21" s="97" t="s">
         <v>16</v>
       </c>
       <c r="C21" s="44" t="s">
@@ -2113,42 +2062,42 @@
       <c r="F21" s="37"/>
     </row>
     <row r="22" spans="1:6" s="30" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A22" s="97"/>
-      <c r="B22" s="104"/>
+      <c r="A22" s="101"/>
+      <c r="B22" s="98"/>
       <c r="C22" s="48"/>
       <c r="D22" s="47"/>
       <c r="E22" s="36"/>
       <c r="F22" s="37"/>
     </row>
     <row r="23" spans="1:6" s="30" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="97"/>
-      <c r="B23" s="104"/>
+      <c r="A23" s="101"/>
+      <c r="B23" s="98"/>
       <c r="C23" s="49"/>
       <c r="D23" s="49"/>
       <c r="E23" s="36"/>
       <c r="F23" s="37"/>
     </row>
     <row r="24" spans="1:6" s="30" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="97"/>
-      <c r="B24" s="104"/>
+      <c r="A24" s="101"/>
+      <c r="B24" s="98"/>
       <c r="C24" s="49"/>
       <c r="D24" s="49"/>
       <c r="E24" s="36"/>
       <c r="F24" s="37"/>
     </row>
     <row r="25" spans="1:6" s="30" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="98"/>
-      <c r="B25" s="105"/>
+      <c r="A25" s="102"/>
+      <c r="B25" s="99"/>
       <c r="C25" s="49"/>
       <c r="D25" s="49"/>
       <c r="E25" s="36"/>
       <c r="F25" s="37"/>
     </row>
     <row r="26" spans="1:6" s="30" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="96">
+      <c r="A26" s="100">
         <v>8</v>
       </c>
-      <c r="B26" s="103" t="s">
+      <c r="B26" s="97" t="s">
         <v>18</v>
       </c>
       <c r="C26" s="44" t="s">
@@ -2161,32 +2110,32 @@
       <c r="F26" s="37"/>
     </row>
     <row r="27" spans="1:6" s="30" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A27" s="97"/>
-      <c r="B27" s="104"/>
+      <c r="A27" s="101"/>
+      <c r="B27" s="98"/>
       <c r="C27" s="48"/>
       <c r="D27" s="47"/>
       <c r="E27" s="36"/>
       <c r="F27" s="37"/>
     </row>
     <row r="28" spans="1:6" s="30" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="97"/>
-      <c r="B28" s="104"/>
+      <c r="A28" s="101"/>
+      <c r="B28" s="98"/>
       <c r="C28" s="49"/>
       <c r="D28" s="49"/>
       <c r="E28" s="36"/>
       <c r="F28" s="37"/>
     </row>
     <row r="29" spans="1:6" s="30" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="97"/>
-      <c r="B29" s="104"/>
+      <c r="A29" s="101"/>
+      <c r="B29" s="98"/>
       <c r="C29" s="49"/>
       <c r="D29" s="49"/>
       <c r="E29" s="36"/>
       <c r="F29" s="37"/>
     </row>
     <row r="30" spans="1:6" s="30" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="98"/>
-      <c r="B30" s="105"/>
+      <c r="A30" s="102"/>
+      <c r="B30" s="99"/>
       <c r="C30" s="49"/>
       <c r="D30" s="49"/>
       <c r="E30" s="36"/>
@@ -2199,8 +2148,8 @@
       <c r="B31" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="C31" s="99"/>
-      <c r="D31" s="100"/>
+      <c r="C31" s="104"/>
+      <c r="D31" s="96"/>
       <c r="E31" s="36"/>
       <c r="F31" s="37"/>
     </row>
@@ -2211,8 +2160,8 @@
       <c r="B32" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="C32" s="102"/>
-      <c r="D32" s="100"/>
+      <c r="C32" s="95"/>
+      <c r="D32" s="96"/>
       <c r="E32" s="36"/>
       <c r="F32" s="37"/>
     </row>
@@ -2314,6 +2263,14 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="A11:A15"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
     <mergeCell ref="C32:D32"/>
     <mergeCell ref="B11:B15"/>
     <mergeCell ref="B7:B10"/>
@@ -2323,14 +2280,6 @@
     <mergeCell ref="B21:B25"/>
     <mergeCell ref="A26:A30"/>
     <mergeCell ref="B26:B30"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="A7:A10"/>
-    <mergeCell ref="A11:A15"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
